--- a/public/xls_template/employee-upload.xlsx
+++ b/public/xls_template/employee-upload.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,60 +24,18 @@
     <t>ITEMS</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
     <t>Middle Name</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
     <t>Spouse Name (if any)</t>
   </si>
   <si>
-    <t>Qualified Dependents(numeric)</t>
-  </si>
-  <si>
-    <t>Marital status(single/married/divorced/seperated/widowed)</t>
-  </si>
-  <si>
-    <t>Birthdate (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>Gender (male/female)</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Job Position</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Payroll Group</t>
-  </si>
-  <si>
-    <t>Payroll Period</t>
-  </si>
-  <si>
     <t>Employee Role</t>
   </si>
   <si>
-    <t>Date Hired(Y/M/D)</t>
-  </si>
-  <si>
-    <t>Basic Pay</t>
-  </si>
-  <si>
     <t>TIN #</t>
   </si>
   <si>
@@ -94,6 +52,204 @@
   </si>
   <si>
     <t>Mobile#</t>
+  </si>
+  <si>
+    <r>
+      <t>First Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Last Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Qualified Dependents(numeric)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Marital status(single/married/divorced/seperated/widowed)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Birthdate (YYYY-MM-DD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gender (male/female)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Employee Status(Regular/Irregular)</t>
+  </si>
+  <si>
+    <r>
+      <t>Branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Job Position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Department</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Payroll Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Payroll Period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Date Hired(Y/M/D)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Basic Pay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -103,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +292,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -550,86 +713,99 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="40.5" customWidth="1"/>
+    <col min="8" max="8" width="66.83203125" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
+    <col min="17" max="17" width="26.5" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25">

--- a/public/xls_template/employee-upload.xlsx
+++ b/public/xls_template/employee-upload.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="1980" windowWidth="25120" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ITEMS</t>
   </si>
@@ -144,9 +144,6 @@
     </r>
   </si>
   <si>
-    <t>Employee Status(Regular/Irregular)</t>
-  </si>
-  <si>
     <r>
       <t>Branch</t>
     </r>
@@ -239,6 +236,24 @@
   <si>
     <r>
       <t>Basic Pay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Philhealth # </t>
+  </si>
+  <si>
+    <r>
+      <t>Employee Type</t>
     </r>
     <r>
       <rPr>
@@ -710,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -731,7 +746,7 @@
     <col min="18" max="18" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,31 +778,31 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>5</v>
@@ -796,19 +811,22 @@
         <v>6</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -830,12 +848,13 @@
       <c r="S2" s="10"/>
       <c r="T2" s="5"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="5"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="7"/>
       <c r="X2" s="5"/>
-      <c r="Y2" s="12"/>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="12"/>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -857,12 +876,13 @@
       <c r="S3" s="10"/>
       <c r="T3" s="5"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="5"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="7"/>
       <c r="X3" s="5"/>
-      <c r="Y3" s="12"/>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="12"/>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -884,12 +904,13 @@
       <c r="S4" s="10"/>
       <c r="T4" s="5"/>
       <c r="U4" s="11"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="5"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="7"/>
       <c r="X4" s="5"/>
-      <c r="Y4" s="12"/>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -911,12 +932,13 @@
       <c r="S5" s="10"/>
       <c r="T5" s="5"/>
       <c r="U5" s="11"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="5"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="7"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="12"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -938,12 +960,13 @@
       <c r="S6" s="10"/>
       <c r="T6" s="5"/>
       <c r="U6" s="11"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="5"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="7"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="12"/>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -965,12 +988,13 @@
       <c r="S7" s="10"/>
       <c r="T7" s="5"/>
       <c r="U7" s="11"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="5"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -992,12 +1016,13 @@
       <c r="S8" s="10"/>
       <c r="T8" s="5"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="5"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="7"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="12"/>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="12"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -1019,12 +1044,13 @@
       <c r="S9" s="10"/>
       <c r="T9" s="5"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="5"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="7"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="12"/>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -1046,12 +1072,13 @@
       <c r="S10" s="10"/>
       <c r="T10" s="5"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="5"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="7"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="12"/>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="12"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -1073,12 +1100,13 @@
       <c r="S11" s="10"/>
       <c r="T11" s="5"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="5"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="7"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="12"/>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -1100,12 +1128,13 @@
       <c r="S12" s="10"/>
       <c r="T12" s="5"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="5"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="7"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="12"/>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -1127,12 +1156,13 @@
       <c r="S13" s="10"/>
       <c r="T13" s="5"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="5"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="7"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="12"/>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -1154,12 +1184,13 @@
       <c r="S14" s="10"/>
       <c r="T14" s="5"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="5"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="7"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -1181,12 +1212,13 @@
       <c r="S15" s="10"/>
       <c r="T15" s="5"/>
       <c r="U15" s="11"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="5"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="7"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -1208,12 +1240,13 @@
       <c r="S16" s="10"/>
       <c r="T16" s="5"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="5"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="7"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="12"/>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="12"/>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -1235,12 +1268,13 @@
       <c r="S17" s="10"/>
       <c r="T17" s="5"/>
       <c r="U17" s="11"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="5"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="7"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="12"/>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="12"/>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -1262,12 +1296,13 @@
       <c r="S18" s="10"/>
       <c r="T18" s="5"/>
       <c r="U18" s="11"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="5"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="7"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="12"/>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="12"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -1289,12 +1324,13 @@
       <c r="S19" s="10"/>
       <c r="T19" s="5"/>
       <c r="U19" s="11"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="5"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="7"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="12"/>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="12"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -1316,12 +1352,13 @@
       <c r="S20" s="10"/>
       <c r="T20" s="5"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="5"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="7"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="12"/>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="12"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -1343,12 +1380,13 @@
       <c r="S21" s="10"/>
       <c r="T21" s="5"/>
       <c r="U21" s="11"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="5"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="7"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="12"/>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="12"/>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -1370,12 +1408,13 @@
       <c r="S22" s="10"/>
       <c r="T22" s="5"/>
       <c r="U22" s="11"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="5"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="7"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="12"/>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="12"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -1397,12 +1436,13 @@
       <c r="S23" s="10"/>
       <c r="T23" s="5"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="5"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="7"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="12"/>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -1424,12 +1464,13 @@
       <c r="S24" s="10"/>
       <c r="T24" s="5"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="5"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="7"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="12"/>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="12"/>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -1451,12 +1492,13 @@
       <c r="S25" s="10"/>
       <c r="T25" s="5"/>
       <c r="U25" s="11"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="5"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="7"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="12"/>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="12"/>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -1478,12 +1520,13 @@
       <c r="S26" s="10"/>
       <c r="T26" s="5"/>
       <c r="U26" s="11"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="5"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="7"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -1505,12 +1548,13 @@
       <c r="S27" s="10"/>
       <c r="T27" s="5"/>
       <c r="U27" s="11"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="5"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="7"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="12"/>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -1535,9 +1579,10 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="12"/>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -1562,7 +1607,8 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="12"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/xls_template/employee-upload.xlsx
+++ b/public/xls_template/employee-upload.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1980" windowWidth="25120" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
   </si>
   <si>
     <r>
-      <t>Date Hired(Y/M/D)</t>
+      <t>Basic Pay</t>
     </r>
     <r>
       <rPr>
@@ -234,8 +234,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Basic Pay</t>
+    <t xml:space="preserve">Philhealth # </t>
+  </si>
+  <si>
+    <r>
+      <t>Employee Type</t>
     </r>
     <r>
       <rPr>
@@ -249,11 +252,8 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Philhealth # </t>
-  </si>
-  <si>
-    <r>
-      <t>Employee Type</t>
+    <r>
+      <t>Date Hired(YYYY-MM-DD)</t>
     </r>
     <r>
       <rPr>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -743,7 +743,7 @@
     <col min="15" max="15" width="25.83203125" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
     <col min="17" max="17" width="26.5" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" customWidth="1"/>
+    <col min="18" max="18" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -778,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -799,10 +799,10 @@
         <v>4</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>5</v>
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>7</v>

--- a/public/xls_template/employee-upload.xlsx
+++ b/public/xls_template/employee-upload.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>ITEMS</t>
-  </si>
-  <si>
     <t>Middle Name</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
       <t>*</t>
     </r>
   </si>
+  <si>
+    <t>sss</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,6 +318,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -333,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -356,13 +378,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,10 +429,29 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -725,60 +781,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="40.5" customWidth="1"/>
-    <col min="8" max="8" width="66.83203125" customWidth="1"/>
-    <col min="9" max="9" width="34.6640625" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="25.83203125" customWidth="1"/>
-    <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="26.5" customWidth="1"/>
-    <col min="18" max="18" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="66.83203125" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="25.83203125" customWidth="1"/>
+    <col min="15" max="15" width="26" customWidth="1"/>
+    <col min="16" max="16" width="26.5" customWidth="1"/>
+    <col min="17" max="17" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -789,29 +849,29 @@
       <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>7</v>
@@ -822,793 +882,764 @@
       <c r="Y1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="5"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="5"/>
       <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="12"/>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
+      <c r="Y2" s="12"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="5"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="11"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="5"/>
       <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="12"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="12"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
+      <c r="Y3" s="12"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="23"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="5"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="11"/>
       <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="12"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
+      <c r="Y5" s="12"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="5"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="11"/>
       <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="12"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
+      <c r="Y6" s="12"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="5"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="11"/>
       <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="5"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="11"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="12"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
+      <c r="Y8" s="12"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="5"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="12"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
+      <c r="Y9" s="12"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="5"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="12"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
+      <c r="Y10" s="12"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="5"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="12"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
+      <c r="Y11" s="12"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="5"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="12"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
+      <c r="Y12" s="12"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="5"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="12"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
+      <c r="Y13" s="12"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="5"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="9"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="5"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="12"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="5"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="12"/>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
+      <c r="Y16" s="12"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="5"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="5"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="12"/>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
+      <c r="Y17" s="12"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="5"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="5"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="12"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
+      <c r="Y18" s="12"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="5"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="11"/>
       <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="12"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
+      <c r="Y19" s="12"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="5"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="5"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="12"/>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
+      <c r="Y20" s="12"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="5"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="12"/>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
+      <c r="Y21" s="12"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="5"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="5"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="12"/>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
+      <c r="Y22" s="12"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="5"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="12"/>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
+      <c r="Y23" s="12"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="5"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="12"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
+      <c r="Y24" s="12"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="5"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="5"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="12"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
+      <c r="Y25" s="12"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="5"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="5"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="5"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="12"/>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
+      <c r="Y27" s="12"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="10"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="12"/>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
+      <c r="Y28" s="12"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="10"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="12"/>
+      <c r="Y29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/xls_template/employee-upload.xlsx
+++ b/public/xls_template/employee-upload.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="2040" windowWidth="23360" windowHeight="13280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Middle Name</t>
   </si>
@@ -187,7 +187,7 @@
   </si>
   <si>
     <r>
-      <t>Payroll Group</t>
+      <t>Payroll Period</t>
     </r>
     <r>
       <rPr>
@@ -202,7 +202,7 @@
   </si>
   <si>
     <r>
-      <t>Payroll Period</t>
+      <t>Basic Pay</t>
     </r>
     <r>
       <rPr>
@@ -216,8 +216,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Basic Pay</t>
+    <t xml:space="preserve">Philhealth # </t>
+  </si>
+  <si>
+    <r>
+      <t>Employee Type</t>
     </r>
     <r>
       <rPr>
@@ -231,11 +234,8 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Philhealth # </t>
-  </si>
-  <si>
-    <r>
-      <t>Employee Type</t>
+    <r>
+      <t>Date Hired(YYYY-MM-DD)</t>
     </r>
     <r>
       <rPr>
@@ -250,7 +250,7 @@
   </si>
   <si>
     <r>
-      <t>Date Hired(YYYY-MM-DD)</t>
+      <t>Employee Status</t>
     </r>
     <r>
       <rPr>
@@ -264,7 +264,34 @@
     </r>
   </si>
   <si>
-    <t>sss</t>
+    <r>
+      <t>Time Shift End(HH:MM:SS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Time Shift Start(HH:MM:SS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -379,13 +406,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -399,7 +426,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,24 +455,41 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -781,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -804,9 +848,11 @@
     <col min="15" max="15" width="26" customWidth="1"/>
     <col min="16" max="16" width="26.5" customWidth="1"/>
     <col min="17" max="17" width="31.33203125" customWidth="1"/>
+    <col min="26" max="26" width="24" style="32" customWidth="1"/>
+    <col min="27" max="27" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -835,7 +881,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>16</v>
@@ -847,19 +893,19 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
@@ -868,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>6</v>
@@ -882,8 +928,15 @@
       <c r="Y1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="5"/>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="6"/>
@@ -909,8 +962,11 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="12"/>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="5"/>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -936,35 +992,41 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="12"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="23"/>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="14"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="5"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -990,8 +1052,11 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="12"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="5"/>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1017,8 +1082,11 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="12"/>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="5"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1044,8 +1112,11 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="5"/>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1071,8 +1142,11 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="12"/>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1098,8 +1172,11 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="12"/>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1125,8 +1202,11 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="12"/>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1152,8 +1232,11 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="12"/>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1179,8 +1262,11 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="12"/>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -1206,8 +1292,11 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="12"/>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
@@ -1233,8 +1322,11 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
@@ -1260,8 +1352,11 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
@@ -1287,8 +1382,11 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="12"/>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
@@ -1314,8 +1412,11 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="12"/>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="5"/>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
@@ -1341,8 +1442,11 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="12"/>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="6"/>
@@ -1368,8 +1472,11 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="12"/>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="5"/>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="6"/>
@@ -1395,8 +1502,11 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="12"/>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
@@ -1422,8 +1532,11 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="12"/>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
@@ -1449,35 +1562,41 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="12"/>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="12"/>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -1503,8 +1622,11 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="12"/>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
@@ -1530,12 +1652,13 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="12"/>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1559,8 +1682,11 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
@@ -1586,8 +1712,11 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="12"/>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
@@ -1613,8 +1742,11 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="12"/>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
@@ -1640,6 +1772,9 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="12"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/xls_template/employee-upload.xlsx
+++ b/public/xls_template/employee-upload.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -208,7 +208,7 @@
   </si>
   <si>
     <r>
-      <t>Employee Type</t>
+      <t>Date Hired(YYYY-MM-DD)</t>
     </r>
     <r>
       <rPr>
@@ -223,7 +223,7 @@
   </si>
   <si>
     <r>
-      <t>Payroll Period</t>
+      <t>Basic Pay</t>
     </r>
     <r>
       <rPr>
@@ -238,7 +238,7 @@
   </si>
   <si>
     <r>
-      <t>Date Hired(YYYY-MM-DD)</t>
+      <t>Time Shift Start(HH:MM:SS)</t>
     </r>
     <r>
       <rPr>
@@ -253,7 +253,7 @@
   </si>
   <si>
     <r>
-      <t>Basic Pay</t>
+      <t>Time Shift End(HH:MM:SS)</t>
     </r>
     <r>
       <rPr>
@@ -268,7 +268,7 @@
   </si>
   <si>
     <r>
-      <t>Time Shift Start(HH:MM:SS)</t>
+      <t>Employee Type (Payroll Group/ Payset)</t>
     </r>
     <r>
       <rPr>
@@ -283,7 +283,7 @@
   </si>
   <si>
     <r>
-      <t>Time Shift End(HH:MM:SS)</t>
+      <t>Payroll Period(Monthly/ Semi-monthly / Daily)</t>
     </r>
     <r>
       <rPr>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -883,19 +883,19 @@
         <v>21</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S1" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T1" s="20" t="s">
         <v>4</v>
@@ -919,10 +919,10 @@
         <v>9</v>
       </c>
       <c r="AA1" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB1" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC1" s="2"/>
     </row>

--- a/public/xls_template/employee-upload.xlsx
+++ b/public/xls_template/employee-upload.xlsx
@@ -268,7 +268,7 @@
   </si>
   <si>
     <r>
-      <t>Employee Type (Payroll Group/ Payset)</t>
+      <t>Payroll Period(Monthly/ Semi-monthly / Daily)</t>
     </r>
     <r>
       <rPr>
@@ -283,7 +283,7 @@
   </si>
   <si>
     <r>
-      <t>Payroll Period(Monthly/ Semi-monthly / Daily)</t>
+      <t>Payroll Group</t>
     </r>
     <r>
       <rPr>
@@ -813,9 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -883,10 +881,10 @@
         <v>21</v>
       </c>
       <c r="O1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>27</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>3</v>
